--- a/biology/Botanique/Nature_morte_à_la_rose_jaune/Nature_morte_à_la_rose_jaune.xlsx
+++ b/biology/Botanique/Nature_morte_à_la_rose_jaune/Nature_morte_à_la_rose_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nature_morte_%C3%A0_la_rose_jaune</t>
+          <t>Nature_morte_à_la_rose_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nature morte à la rose jaune ou Rose jaune, est une peinture à l'huile sur toile réalisée par Fantin-Latour en 1871 et conservée à l'Ashmolean Museum d'Oxford en Angleterre[1]. Elle mesure 30 × 24 cm[2]. Son numéro d'inventaire est WA1937.42.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nature morte à la rose jaune ou Rose jaune, est une peinture à l'huile sur toile réalisée par Fantin-Latour en 1871 et conservée à l'Ashmolean Museum d'Oxford en Angleterre. Elle mesure 30 × 24 cm. Son numéro d'inventaire est WA1937.42.  
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nature_morte_%C3%A0_la_rose_jaune</t>
+          <t>Nature_morte_à_la_rose_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce tableau représente une rose-thé épanouie de couleur jaune dont la tige est plongée dans un verre à pied de forme en flûte que l'on retrouve dans d'autres tableaux du peintre des années 1870.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nature_morte_%C3%A0_la_rose_jaune</t>
+          <t>Nature_morte_à_la_rose_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette nature morte a été offerte par le peintre à ses amis Edwards avec qui il était lié depuis 1861 et qui faisaient connaître sa peinture en Angleterre[2]. Elle a été léguée au musée par Mrs W. F. R. Weldon, en 1937. Cette toile est signée et datée en haut à droite.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette nature morte a été offerte par le peintre à ses amis Edwards avec qui il était lié depuis 1861 et qui faisaient connaître sa peinture en Angleterre. Elle a été léguée au musée par Mrs W. F. R. Weldon, en 1937. Cette toile est signée et datée en haut à droite.
 </t>
         </is>
       </c>
